--- a/data/trans_bre/P07B_R2_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P07B_R2_2023-Edad-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.325913338580119</v>
+        <v>-7.934697420237606</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.0751508703216838</v>
+        <v>-0.08090618248444396</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4623783886616555</v>
+        <v>0.01462409506156264</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.004722023929781244</v>
+        <v>-9.926274486903086e-05</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.81126407916809</v>
+        <v>-3.197865703537927</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02907329586648754</v>
+        <v>-0.0327959831692977</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.566254553203352</v>
+        <v>3.478743211142802</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03821471728485834</v>
+        <v>0.03702974787815293</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-0.4144098622896553</v>
+        <v>-0.4144098622896775</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.004352387155278316</v>
+        <v>-0.004352387155278549</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.467056879225112</v>
+        <v>-2.524689659312709</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.02554977037070722</v>
+        <v>-0.02617741973970995</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.235426003391887</v>
+        <v>2.301977198543664</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.0237272445054749</v>
+        <v>0.02459638490325639</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-1.670995629224326</v>
+        <v>-1.670995629224337</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.01801577143174014</v>
+        <v>-0.01801577143174026</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.244301796761425</v>
+        <v>-4.153217997816684</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04520178354599706</v>
+        <v>-0.04398895100492788</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.426068000015838</v>
+        <v>1.457130972227695</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01519051344046372</v>
+        <v>0.01604411077934835</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-3.921464606762748</v>
+        <v>-3.921464606762737</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.04280910763314952</v>
+        <v>-0.0428091076331494</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.125097103879396</v>
+        <v>-6.658354670459321</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.07664186026045017</v>
+        <v>-0.07178302814109769</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.9479070428841385</v>
+        <v>-1.071019726226098</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-0.01058045693573687</v>
+        <v>-0.0123221636457809</v>
       </c>
     </row>
     <row r="19">
@@ -785,7 +785,7 @@
         <v>-5.70844941561618</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.06053220524876606</v>
+        <v>-0.06053220524876607</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-8.614474677144354</v>
+        <v>-8.544136805519059</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09067502724445548</v>
+        <v>-0.09022286092390377</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-2.742511432895797</v>
+        <v>-2.85821847148352</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.02989305901712133</v>
+        <v>-0.03061198287658397</v>
       </c>
     </row>
     <row r="22">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.65480028490332</v>
+        <v>-12.53981177376903</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.140257762765795</v>
+        <v>-0.1390791370320601</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-4.78472979601267</v>
+        <v>-4.556753860503649</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>-0.05525784759851022</v>
+        <v>-0.05498100861983424</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>-3.428283956869549</v>
+        <v>-3.428283956869582</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.03655984231113796</v>
+        <v>-0.0365598423111383</v>
       </c>
     </row>
     <row r="26">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-4.580640164478255</v>
+        <v>-4.638346241410511</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04840583447801953</v>
+        <v>-0.04928957125177483</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-2.217086967032503</v>
+        <v>-2.29189929871725</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.02380403473532269</v>
+        <v>-0.02465599441948865</v>
       </c>
     </row>
     <row r="28">
